--- a/biology/Botanique/Johannesteijsmannia/Johannesteijsmannia.xlsx
+++ b/biology/Botanique/Johannesteijsmannia/Johannesteijsmannia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Johannesteijsmannia est un genre de plante de la famille des Arecaceae (palmiers). Il comporte quatre espèces que l’on trouve dans les forêts tropicales humides de la péninsule malaise, de Bornéo et du nord de Sumatra. Ce sont des palmiers solitaires, acaules ou à stipe court, développant de grandes feuilles simples et entières. Le genre a été nommé en l'honneur de Johannes Elias Teijsmann, un botaniste néerlandais qui a dirigé le jardin botanique de Bogor de 1830 à 1869[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Johannesteijsmannia est un genre de plante de la famille des Arecaceae (palmiers). Il comporte quatre espèces que l’on trouve dans les forêts tropicales humides de la péninsule malaise, de Bornéo et du nord de Sumatra. Ce sont des palmiers solitaires, acaules ou à stipe court, développant de grandes feuilles simples et entières. Le genre a été nommé en l'honneur de Johannes Elias Teijsmann, un botaniste néerlandais qui a dirigé le jardin botanique de Bogor de 1830 à 1869.
 « Joey Palm » est l'équivalent anglais « plus court » de ce groupe. Il contient les espèces suivantes :
 Johannesteijsmannia altifrons
 Johannesteijsmannia lanceolata
